--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_14_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_14_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32947.05883093715</v>
+        <v>6556464.707356492</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32947.05883093715</v>
+        <v>6556464.707356492</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9917.195812110273</v>
+        <v>596804.7795202306</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9917.195812110273</v>
+        <v>596804.7795202306</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036145090.118881</v>
+        <v>42590933.19125203</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9521.159287210005</v>
+        <v>1027366.243306581</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17972.20252319282</v>
+        <v>1877445.745531082</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26423.24575917563</v>
+        <v>2727525.247755584</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35316.36204025431</v>
+        <v>3549322.917888043</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44209.47832133298</v>
+        <v>4371120.588020501</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>52772.73595411349</v>
+        <v>5221225.265736922</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>61335.86707688305</v>
+        <v>6071304.767961418</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>69898.99819965262</v>
+        <v>6921384.270185917</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>78632.66048389989</v>
+        <v>7742469.470412725</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87391.39473270015</v>
+        <v>8568543.991586164</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>95979.59782002476</v>
+        <v>9423612.814757127</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>104542.7289427943</v>
+        <v>10273692.31698164</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>113105.8600655652</v>
+        <v>11123771.81920614</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>121998.8498366342</v>
+        <v>11945544.31384669</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>130891.9661177129</v>
+        <v>12767341.98397915</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
@@ -27055,7 +27055,7 @@
         <v>74</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>7.677016176537357e-12</v>
